--- a/stationIDs.xlsx
+++ b/stationIDs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijon\Documents\18fall\CS443\MBTATracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{86032F68-1201-4628-AE52-A1FA48AE13FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DD610C-D6C3-4A58-8B0D-8A24D9042556}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="7296"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="7296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stationIDs" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stationIDs!$A$1:$B$422</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stationIDs!$A$1:$B$423</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="667">
   <si>
     <t>name</t>
   </si>
@@ -2022,12 +2030,15 @@
   </si>
   <si>
     <t>st. mary\'s st</t>
+  </si>
+  <si>
+    <t>gov center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2861,11 +2872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C422"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5202,7 +5213,7 @@
         <v>171</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C258" si="3">_xlfn.CONCAT("&lt;item&gt;",A195,",",B195,"&lt;/item&gt;")</f>
+        <f t="shared" ref="C195:C259" si="3">_xlfn.CONCAT("&lt;item&gt;",A195,",",B195,"&lt;/item&gt;")</f>
         <v>&lt;item&gt;eliot,place-eliot&lt;/item&gt;</v>
       </c>
     </row>
@@ -5340,2534 +5351,2534 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>666</v>
+      </c>
+      <c r="B207" t="s">
+        <v>189</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" ref="C207" si="4">_xlfn.CONCAT("&lt;item&gt;",A207,",",B207,"&lt;/item&gt;")</f>
+        <v>&lt;item&gt;gov center,place-gover&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>190</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>191</v>
       </c>
-      <c r="C207" t="str">
+      <c r="C208" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;griggs street,place-grigg&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>192</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>191</v>
       </c>
-      <c r="C208" t="str">
+      <c r="C209" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;griggs st,place-grigg&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>193</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>194</v>
       </c>
-      <c r="C209" t="str">
+      <c r="C210" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;green street,place-grnst&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>195</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>194</v>
       </c>
-      <c r="C210" t="str">
+      <c r="C211" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;green st,place-grnst&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>196</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>197</v>
       </c>
-      <c r="C211" t="str">
+      <c r="C212" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;haymarket,place-haecl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>198</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>199</v>
       </c>
-      <c r="C212" t="str">
+      <c r="C213" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;harvard,place-harsq&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>200</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>199</v>
       </c>
-      <c r="C213" t="str">
+      <c r="C214" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;harvard square,place-harsq&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>201</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>199</v>
       </c>
-      <c r="C214" t="str">
+      <c r="C215" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;harvard sq,place-harsq&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>202</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>203</v>
       </c>
-      <c r="C215" t="str">
+      <c r="C216" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;harvard avenue,place-harvd&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>204</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>203</v>
       </c>
-      <c r="C216" t="str">
+      <c r="C217" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;harvard ave,place-harvd&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>205</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>203</v>
       </c>
-      <c r="C217" t="str">
+      <c r="C218" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;harvard av,place-harvd&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>206</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>207</v>
       </c>
-      <c r="C218" t="str">
+      <c r="C219" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;heath street,place-hsmnl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>208</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>207</v>
       </c>
-      <c r="C219" t="str">
+      <c r="C220" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;heath st,place-hsmnl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>209</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>210</v>
       </c>
-      <c r="C220" t="str">
+      <c r="C221" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;hawes street,place-hwsst&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>211</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>210</v>
       </c>
-      <c r="C221" t="str">
+      <c r="C222" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;hawes st,place-hwsst&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>212</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>213</v>
       </c>
-      <c r="C222" t="str">
+      <c r="C223" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;hynes convention center,place-hymnl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>214</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>213</v>
       </c>
-      <c r="C223" t="str">
+      <c r="C224" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;hynes,place-hymnl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>215</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>216</v>
       </c>
-      <c r="C224" t="str">
+      <c r="C225" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;jackson square,place-jaksn&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>217</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>216</v>
       </c>
-      <c r="C225" t="str">
+      <c r="C226" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;jackson sq,place-jaksn&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>218</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>219</v>
       </c>
-      <c r="C226" t="str">
+      <c r="C227" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;jfk/umass,place-jfk&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>220</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>219</v>
       </c>
-      <c r="C227" t="str">
+      <c r="C228" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;jfk,place-jfk&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>221</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>219</v>
       </c>
-      <c r="C228" t="str">
+      <c r="C229" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;jfk umass,place-jfk&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>222</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>223</v>
       </c>
-      <c r="C229" t="str">
+      <c r="C230" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kenmore,place-kencl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>224</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>223</v>
       </c>
-      <c r="C230" t="str">
+      <c r="C231" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kenmore square,place-kencl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>225</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>223</v>
       </c>
-      <c r="C231" t="str">
+      <c r="C232" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kenmore sq,place-kencl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>226</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>227</v>
       </c>
-      <c r="C232" t="str">
+      <c r="C233" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kendall/mit,place-knncl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>228</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>227</v>
       </c>
-      <c r="C233" t="str">
+      <c r="C234" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kendall,place-knncl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>229</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>227</v>
       </c>
-      <c r="C234" t="str">
+      <c r="C235" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kendall mit,place-knncl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>230</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>227</v>
       </c>
-      <c r="C235" t="str">
+      <c r="C236" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kendall square,place-knncl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>231</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>227</v>
       </c>
-      <c r="C236" t="str">
+      <c r="C237" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kendall sq,place-knncl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>232</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>233</v>
       </c>
-      <c r="C237" t="str">
+      <c r="C238" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kent street,place-kntst&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>234</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>233</v>
       </c>
-      <c r="C238" t="str">
+      <c r="C239" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;kent st,place-kntst&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>235</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>236</v>
       </c>
-      <c r="C239" t="str">
+      <c r="C240" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;boston college,place-lake&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>237</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>236</v>
       </c>
-      <c r="C240" t="str">
+      <c r="C241" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;bc,place-lake&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>238</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>239</v>
       </c>
-      <c r="C241" t="str">
+      <c r="C242" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;lechmere,place-lech&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>240</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>241</v>
       </c>
-      <c r="C242" t="str">
+      <c r="C243" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;longwood medical area,place-lngmd&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>241</v>
       </c>
-      <c r="C243" t="str">
+      <c r="C244" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;longwood medical,place-lngmd&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>244</v>
       </c>
-      <c r="C244" t="str">
+      <c r="C245" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;longwood,place-longw&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>246</v>
       </c>
-      <c r="C245" t="str">
+      <c r="C246" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;massachusetts avenue,place-masta&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>247</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>246</v>
       </c>
-      <c r="C246" t="str">
+      <c r="C247" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;mass avenue,place-masta&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>248</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>246</v>
       </c>
-      <c r="C247" t="str">
+      <c r="C248" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;mass ave,place-masta&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>249</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>246</v>
       </c>
-      <c r="C248" t="str">
+      <c r="C249" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;mass av,place-masta&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>250</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>246</v>
       </c>
-      <c r="C249" t="str">
+      <c r="C250" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;massachusetts ave,place-masta&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>251</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>246</v>
       </c>
-      <c r="C250" t="str">
+      <c r="C251" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;massachusetts av,place-masta&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>252</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>253</v>
       </c>
-      <c r="C251" t="str">
+      <c r="C252" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;mattapan,place-matt&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>254</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>255</v>
       </c>
-      <c r="C252" t="str">
+      <c r="C253" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;museum of fine arts,place-mfa&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>256</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>255</v>
       </c>
-      <c r="C253" t="str">
+      <c r="C254" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;mfa,place-mfa&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>257</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>258</v>
       </c>
-      <c r="C254" t="str">
+      <c r="C255" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;milton,place-miltt&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>259</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>260</v>
       </c>
-      <c r="C255" t="str">
+      <c r="C256" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;mission park,place-mispk&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>261</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>262</v>
       </c>
-      <c r="C256" t="str">
+      <c r="C257" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;malden center,place-mlmnl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>263</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>262</v>
       </c>
-      <c r="C257" t="str">
+      <c r="C258" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;malden,place-mlmnl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>264</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>265</v>
       </c>
-      <c r="C258" t="str">
+      <c r="C259" t="str">
         <f t="shared" si="3"/>
         <v>&lt;item&gt;maverick,place-mvbcl&lt;/item&gt;</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>266</v>
-      </c>
-      <c r="B259" t="s">
-        <v>265</v>
-      </c>
-      <c r="C259" t="str">
-        <f t="shared" ref="C259:C322" si="4">_xlfn.CONCAT("&lt;item&gt;",A259,",",B259,"&lt;/item&gt;")</f>
-        <v>&lt;item&gt;maverick square,place-mvbcl&lt;/item&gt;</v>
-      </c>
-    </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B260" t="s">
         <v>265</v>
       </c>
       <c r="C260" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;maverick sq,place-mvbcl&lt;/item&gt;</v>
+        <f t="shared" ref="C260:C323" si="5">_xlfn.CONCAT("&lt;item&gt;",A260,",",B260,"&lt;/item&gt;")</f>
+        <v>&lt;item&gt;maverick square,place-mvbcl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C261" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;newton highlands,place-newtn&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;maverick sq,place-mvbcl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;newton centre,place-newto&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;newton highlands,place-newtn&lt;/item&gt;</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B263" t="s">
         <v>271</v>
       </c>
       <c r="C263" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;newton,place-newto&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;newton centre,place-newto&lt;/item&gt;</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B264" t="s">
         <v>271</v>
       </c>
       <c r="C264" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;newton center,place-newto&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;newton,place-newto&lt;/item&gt;</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B265" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C265" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;north station,place-north&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;newton center,place-newto&lt;/item&gt;</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B266" t="s">
         <v>275</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;n station,place-north&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;north station,place-north&lt;/item&gt;</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B267" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;north quincy,place-nqncy&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;n station,place-north&lt;/item&gt;</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B268" t="s">
         <v>278</v>
       </c>
       <c r="C268" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;n quincy,place-nqncy&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;north quincy,place-nqncy&lt;/item&gt;</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B269" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;northeastern university,place-nuniv&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;n quincy,place-nqncy&lt;/item&gt;</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B270" t="s">
         <v>281</v>
       </c>
       <c r="C270" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;northeastern,place-nuniv&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;northeastern university,place-nuniv&lt;/item&gt;</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B271" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C271" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;oak grove,place-ogmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;northeastern,place-nuniv&lt;/item&gt;</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B272" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C272" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;orient heights,place-orhte&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;oak grove,place-ogmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B273" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;park street,place-pktrm&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;orient heights,place-orhte&lt;/item&gt;</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B274" t="s">
         <v>288</v>
       </c>
       <c r="C274" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;park st,place-pktrm&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;park street,place-pktrm&lt;/item&gt;</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B275" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C275" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;pleasant street,place-plsgr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;park st,place-pktrm&lt;/item&gt;</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B276" t="s">
         <v>291</v>
       </c>
       <c r="C276" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;pleasant st,place-plsgr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;pleasant street,place-plsgr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B277" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C277" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;porter,place-portr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;pleasant st,place-plsgr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B278" t="s">
         <v>294</v>
       </c>
       <c r="C278" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;porter square,place-portr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;porter,place-portr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B279" t="s">
         <v>294</v>
       </c>
       <c r="C279" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;porter sq,place-portr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;porter square,place-portr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B280" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C280" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;prudential,place-prmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;porter sq,place-portr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B281" t="s">
         <v>298</v>
       </c>
       <c r="C281" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;prudential center,place-prmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;prudential,place-prmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B282" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C282" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;quincy adams,place-qamnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;prudential center,place-prmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B283" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C283" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;quincy center,place-qnctr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;quincy adams,place-qamnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B284" t="s">
         <v>303</v>
       </c>
       <c r="C284" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;quincy,place-qnctr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;quincy center,place-qnctr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B285" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C285" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;revere beach,place-rbmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;quincy,place-qnctr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B286" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C286" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;roxbury crossing,place-rcmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;revere beach,place-rbmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B287" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C287" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;riverside,place-river&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;roxbury crossing,place-rcmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B288" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C288" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;reservoir,place-rsmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;riverside,place-river&lt;/item&gt;</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B289" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C289" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;ruggles,place-rugg&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;reservoir,place-rsmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B290" t="s">
         <v>314</v>
       </c>
       <c r="C290" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;ruggles street,place-rugg&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;ruggles,place-rugg&lt;/item&gt;</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B291" t="s">
         <v>314</v>
       </c>
       <c r="C291" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;ruggles st,place-rugg&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;ruggles street,place-rugg&lt;/item&gt;</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B292" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C292" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;riverway,place-rvrwy&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;ruggles st,place-rugg&lt;/item&gt;</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B293" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C293" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;stony brook,place-sbmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;riverway,place-rvrwy&lt;/item&gt;</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B294" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C294" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;suffolk downs,place-sdmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;stony brook,place-sbmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B295" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C295" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;savin hill,place-shmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;suffolk downs,place-sdmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B296" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C296" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;saint marys street,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;savin hill,place-shmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B297" t="s">
         <v>326</v>
       </c>
       <c r="C297" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;saint marys st,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;saint marys street,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>660</v>
+        <v>327</v>
       </c>
       <c r="B298" t="s">
         <v>326</v>
       </c>
       <c r="C298" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;saint mary\'s street,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;saint marys st,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B299" t="s">
         <v>326</v>
       </c>
       <c r="C299" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;saint mary\'s st,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;saint mary\'s street,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>328</v>
+        <v>661</v>
       </c>
       <c r="B300" t="s">
         <v>326</v>
       </c>
       <c r="C300" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st marys street,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;saint mary\'s st,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B301" t="s">
         <v>326</v>
       </c>
       <c r="C301" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st marys st,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st marys street,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>662</v>
+        <v>329</v>
       </c>
       <c r="B302" t="s">
         <v>326</v>
       </c>
       <c r="C302" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st mary\'s street,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st marys st,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B303" t="s">
         <v>326</v>
       </c>
       <c r="C303" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st mary\'s st,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st mary\'s street,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>330</v>
+        <v>663</v>
       </c>
       <c r="B304" t="s">
         <v>326</v>
       </c>
       <c r="C304" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st. marys street,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st mary\'s st,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B305" t="s">
         <v>326</v>
       </c>
       <c r="C305" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st. marys st,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st. marys street,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>664</v>
+        <v>331</v>
       </c>
       <c r="B306" t="s">
         <v>326</v>
       </c>
       <c r="C306" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st. mary\'s street,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st. marys st,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B307" t="s">
         <v>326</v>
       </c>
       <c r="C307" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st. mary\'s st,place-smary&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st. mary\'s street,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>332</v>
+        <v>665</v>
       </c>
       <c r="B308" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C308" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;shawmut,place-smmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st. mary\'s st,place-smary&lt;/item&gt;</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B309" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C309" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;south street,place-sougr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;shawmut,place-smmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B310" t="s">
         <v>335</v>
       </c>
       <c r="C310" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;south st,place-sougr&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;south street,place-sougr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B311" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C311" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;science park,place-spmnl&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;south st,place-sougr&lt;/item&gt;</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B312" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C312" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;south station,place-sstat&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;science park,place-spmnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B313" t="s">
         <v>340</v>
       </c>
       <c r="C313" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;s station,place-sstat&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;south station,place-sstat&lt;/item&gt;</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B314" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C314" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;state street,place-state&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;s station,place-sstat&lt;/item&gt;</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B315" t="s">
         <v>343</v>
       </c>
       <c r="C315" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;state st,place-state&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;state street,place-state&lt;/item&gt;</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B316" t="s">
         <v>343</v>
       </c>
       <c r="C316" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;state,place-state&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;state st,place-state&lt;/item&gt;</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B317" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C317" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;sutherland road,place-sthld&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;state,place-state&lt;/item&gt;</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B318" t="s">
         <v>347</v>
       </c>
       <c r="C318" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;sutherland rd,place-sthld&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;sutherland road,place-sthld&lt;/item&gt;</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C319" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;saint paul street,place-stplb&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;sutherland rd,place-sthld&lt;/item&gt;</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B320" t="s">
         <v>350</v>
       </c>
       <c r="C320" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;saint paul st,place-stplb&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;saint paul street,place-stplb&lt;/item&gt;</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B321" t="s">
         <v>350</v>
       </c>
       <c r="C321" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st paul street,place-stplb&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;saint paul st,place-stplb&lt;/item&gt;</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B322" t="s">
         <v>350</v>
       </c>
       <c r="C322" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;item&gt;st paul st,place-stplb&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st paul street,place-stplb&lt;/item&gt;</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B323" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C323" t="str">
-        <f t="shared" ref="C323:C386" si="5">_xlfn.CONCAT("&lt;item&gt;",A323,",",B323,"&lt;/item&gt;")</f>
-        <v>&lt;item&gt;saint paul street,place-stpul&lt;/item&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;item&gt;st paul st,place-stplb&lt;/item&gt;</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B324" t="s">
         <v>354</v>
       </c>
       <c r="C324" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;saint paul st,place-stpul&lt;/item&gt;</v>
+        <f t="shared" ref="C324:C387" si="6">_xlfn.CONCAT("&lt;item&gt;",A324,",",B324,"&lt;/item&gt;")</f>
+        <v>&lt;item&gt;saint paul street,place-stpul&lt;/item&gt;</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B325" t="s">
         <v>354</v>
       </c>
       <c r="C325" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;st paul street,place-stpul&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;saint paul st,place-stpul&lt;/item&gt;</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B326" t="s">
         <v>354</v>
       </c>
       <c r="C326" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;st paul st,place-stpul&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;st paul street,place-stpul&lt;/item&gt;</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B327" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C327" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;sullivan square,place-sull&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;st paul st,place-stpul&lt;/item&gt;</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B328" t="s">
         <v>356</v>
       </c>
       <c r="C328" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;sullivan sq,place-sull&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;sullivan square,place-sull&lt;/item&gt;</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B329" t="s">
         <v>356</v>
       </c>
       <c r="C329" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;sullivan,place-sull&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;sullivan sq,place-sull&lt;/item&gt;</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B330" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C330" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;summit avenue,place-sumav&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;sullivan,place-sull&lt;/item&gt;</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B331" t="s">
         <v>360</v>
       </c>
       <c r="C331" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;summit ave,place-sumav&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;summit avenue,place-sumav&lt;/item&gt;</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B332" t="s">
         <v>360</v>
       </c>
       <c r="C332" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;summit av,place-sumav&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;summit ave,place-sumav&lt;/item&gt;</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B333" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C333" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;symphony,place-symcl&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;summit av,place-sumav&lt;/item&gt;</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B334" t="s">
         <v>364</v>
       </c>
       <c r="C334" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;symphony hall,place-symcl&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;symphony,place-symcl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B335" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C335" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;tappan street,place-tapst&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;symphony hall,place-symcl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B336" t="s">
         <v>367</v>
       </c>
       <c r="C336" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;tappan st,place-tapst&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;tappan street,place-tapst&lt;/item&gt;</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B337" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C337" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;tufts medical center,place-tumnl&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;tappan st,place-tapst&lt;/item&gt;</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B338" t="s">
         <v>370</v>
       </c>
       <c r="C338" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;tufts,place-tumnl&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;tufts medical center,place-tumnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B339" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C339" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;valley road,place-valrd&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;tufts,place-tumnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B340" t="s">
         <v>373</v>
       </c>
       <c r="C340" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;valley rd,place-valrd&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;valley road,place-valrd&lt;/item&gt;</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B341" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C341" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;waban,place-waban&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;valley rd,place-valrd&lt;/item&gt;</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B342" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C342" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;washington street,place-wascm&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;waban,place-waban&lt;/item&gt;</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B343" t="s">
         <v>378</v>
       </c>
       <c r="C343" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;washington st,place-wascm&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;washington street,place-wascm&lt;/item&gt;</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B344" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C344" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;wellington,place-welln&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;washington st,place-wascm&lt;/item&gt;</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B345" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C345" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;wood island,place-wimnl&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;wellington,place-welln&lt;/item&gt;</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B346" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C346" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;wonderland,place-wondl&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;wood island,place-wimnl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B347" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C347" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;woodland,place-woodl&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;wonderland,place-wondl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B348" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C348" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;warren street,place-wrnst&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;woodland,place-woodl&lt;/item&gt;</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B349" t="s">
         <v>389</v>
       </c>
       <c r="C349" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;warren st,place-wrnst&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;warren street,place-wrnst&lt;/item&gt;</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>641</v>
+        <v>390</v>
       </c>
       <c r="B350" t="s">
-        <v>532</v>
+        <v>389</v>
       </c>
       <c r="C350" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;plimptonville,Plimptonville&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;warren st,place-wrnst&lt;/item&gt;</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B351" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C351" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;plymouth,Plymouth&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;plimptonville,Plimptonville&lt;/item&gt;</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>466</v>
+        <v>647</v>
       </c>
       <c r="B352" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="C352" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;prides crossing,Prides Crossing&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;plymouth,Plymouth&lt;/item&gt;</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>622</v>
+        <v>466</v>
       </c>
       <c r="B353" t="s">
-        <v>513</v>
+        <v>465</v>
       </c>
       <c r="C353" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;providence,Providence&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;prides crossing,Prides Crossing&lt;/item&gt;</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="B354" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="C354" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;reading,Reading&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;providence,Providence&lt;/item&gt;</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>391</v>
+        <v>600</v>
       </c>
       <c r="B355" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="C355" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;readville,Readville&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;reading,Reading&lt;/item&gt;</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="B356" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C356" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;river works,River Works / GE Employees Only&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;readville,Readville&lt;/item&gt;</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B357" t="s">
         <v>440</v>
       </c>
       <c r="C357" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;riverworks,River Works / GE Employees Only&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;river works,River Works / GE Employees Only&lt;/item&gt;</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="B358" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="C358" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;rockport,Rockport&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;riverworks,River Works / GE Employees Only&lt;/item&gt;</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>619</v>
+        <v>476</v>
       </c>
       <c r="B359" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="C359" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;roslindale village,Roslindale Village&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;rockport,Rockport&lt;/item&gt;</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="B360" t="s">
         <v>510</v>
       </c>
       <c r="C360" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;roslindale,Roslindale Village&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;roslindale village,Roslindale Village&lt;/item&gt;</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
+        <v>568</v>
+      </c>
+      <c r="B361" t="s">
+        <v>510</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;roslindale,Roslindale Village&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>630</v>
-      </c>
-      <c r="B361" t="s">
-        <v>521</v>
-      </c>
-      <c r="C361" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;route 128,Route 128&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362">
-        <v>128</v>
       </c>
       <c r="B362" t="s">
         <v>521</v>
       </c>
       <c r="C362" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;route 128,Route 128&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>128</v>
+      </c>
+      <c r="B363" t="s">
+        <v>521</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="6"/>
         <v>&lt;item&gt;128,Route 128&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>459</v>
-      </c>
-      <c r="B363" t="s">
-        <v>460</v>
-      </c>
-      <c r="C363" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;rowley,Rowley&lt;/item&gt;</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B364" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C364" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;salem,Salem&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;rowley,Rowley&lt;/item&gt;</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>626</v>
+        <v>445</v>
       </c>
       <c r="B365" t="s">
-        <v>517</v>
+        <v>446</v>
       </c>
       <c r="C365" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;sharon,Sharon&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;salem,Salem&lt;/item&gt;</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>393</v>
+        <v>626</v>
       </c>
       <c r="B366" t="s">
-        <v>394</v>
+        <v>517</v>
       </c>
       <c r="C366" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;shirley,Shirley&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;sharon,Sharon&lt;/item&gt;</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B367" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C367" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;silver hill,Silver Hill&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;shirley,Shirley&lt;/item&gt;</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B368" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C368" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;south acton,South Acton&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;silver hill,Silver Hill&lt;/item&gt;</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B369" t="s">
         <v>398</v>
       </c>
       <c r="C369" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;s acton,South Acton&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;south acton,South Acton&lt;/item&gt;</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>623</v>
+        <v>399</v>
       </c>
       <c r="B370" t="s">
-        <v>514</v>
+        <v>398</v>
       </c>
       <c r="C370" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;south attleboro,South Attleboro&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;s acton,South Acton&lt;/item&gt;</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="B371" t="s">
         <v>514</v>
       </c>
       <c r="C371" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;s attleboro,South Attleboro&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;south attleboro,South Attleboro&lt;/item&gt;</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>653</v>
+        <v>570</v>
       </c>
       <c r="B372" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="C372" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;south weymouth,South Weymouth&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;s attleboro,South Attleboro&lt;/item&gt;</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="B373" t="s">
         <v>547</v>
       </c>
       <c r="C373" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;s weymouth,South Weymouth&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;south weymouth,South Weymouth&lt;/item&gt;</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>400</v>
+        <v>589</v>
       </c>
       <c r="B374" t="s">
-        <v>401</v>
+        <v>547</v>
       </c>
       <c r="C374" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;southborough,Southborough&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;s weymouth,South Weymouth&lt;/item&gt;</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>627</v>
+        <v>400</v>
       </c>
       <c r="B375" t="s">
-        <v>518</v>
+        <v>401</v>
       </c>
       <c r="C375" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;stoughton,Stoughton&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;southborough,Southborough&lt;/item&gt;</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>443</v>
+        <v>627</v>
       </c>
       <c r="B376" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="C376" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;swampscott,Swampscott&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;stoughton,Stoughton&lt;/item&gt;</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="B377" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="C377" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;talbot avenue,Talbot Avenue&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;swampscott,Swampscott&lt;/item&gt;</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B378" t="s">
         <v>403</v>
       </c>
       <c r="C378" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;talbot ave,Talbot Avenue&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;talbot avenue,Talbot Avenue&lt;/item&gt;</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B379" t="s">
         <v>403</v>
       </c>
       <c r="C379" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;talbot av,Talbot Avenue&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;talbot ave,Talbot Avenue&lt;/item&gt;</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>621</v>
+        <v>405</v>
       </c>
       <c r="B380" t="s">
-        <v>512</v>
+        <v>403</v>
       </c>
       <c r="C380" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;tf green airport,TF Green Airport&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;talbot av,Talbot Avenue&lt;/item&gt;</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="B381" t="s">
         <v>512</v>
       </c>
       <c r="C381" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;tf green,TF Green Airport&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;tf green airport,TF Green Airport&lt;/item&gt;</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>406</v>
+        <v>569</v>
       </c>
       <c r="B382" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C382" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;uphams corner,Uphams Corner&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;tf green,TF Green Airport&lt;/item&gt;</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B383" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C383" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;wachusett,Wachusett&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;uphams corner,Uphams Corner&lt;/item&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>601</v>
+        <v>408</v>
       </c>
       <c r="B384" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="C384" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;wakefield,Wakefield&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;wachusett,Wachusett&lt;/item&gt;</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>640</v>
+        <v>601</v>
       </c>
       <c r="B385" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="C385" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;walpole,Walpole&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;wakefield,Wakefield&lt;/item&gt;</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>410</v>
+        <v>640</v>
       </c>
       <c r="B386" t="s">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="C386" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;item&gt;waltham,Waltham&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;walpole,Walpole&lt;/item&gt;</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B387" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C387" t="str">
-        <f t="shared" ref="C387:C422" si="6">_xlfn.CONCAT("&lt;item&gt;",A387,",",B387,"&lt;/item&gt;")</f>
-        <v>&lt;item&gt;waverley,Waverley&lt;/item&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;item&gt;waltham,Waltham&lt;/item&gt;</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>610</v>
+        <v>412</v>
       </c>
       <c r="B388" t="s">
-        <v>501</v>
+        <v>413</v>
       </c>
       <c r="C388" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wedgemere,Wedgemere&lt;/item&gt;</v>
+        <f t="shared" ref="C388:C423" si="7">_xlfn.CONCAT("&lt;item&gt;",A388,",",B388,"&lt;/item&gt;")</f>
+        <v>&lt;item&gt;waverley,Waverley&lt;/item&gt;</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="B389" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="C389" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wellesley farms,Wellesley Farms&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wedgemere,Wedgemere&lt;/item&gt;</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B390" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C390" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wellesley hills,Wellesley Hills&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wellesley farms,Wellesley Farms&lt;/item&gt;</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B391" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C391" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wellesley square,Wellesley Square&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wellesley hills,Wellesley Hills&lt;/item&gt;</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B392" t="s">
         <v>419</v>
       </c>
       <c r="C392" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wellesley sq,Wellesley Square&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wellesley square,Wellesley Square&lt;/item&gt;</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B393" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C393" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;west concord,West Concord&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wellesley sq,Wellesley Square&lt;/item&gt;</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B394" t="s">
         <v>422</v>
       </c>
       <c r="C394" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;w concord,West Concord&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;west concord,West Concord&lt;/item&gt;</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="B395" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="C395" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;west gloucester,West Gloucester&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;w concord,West Concord&lt;/item&gt;</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B396" t="s">
         <v>472</v>
       </c>
       <c r="C396" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;w gloucester,West Gloucester&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;west gloucester,West Gloucester&lt;/item&gt;</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>658</v>
+        <v>473</v>
       </c>
       <c r="B397" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
       <c r="C397" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;west hingham,West Hingham&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;w gloucester,West Gloucester&lt;/item&gt;</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="B398" t="s">
         <v>552</v>
       </c>
       <c r="C398" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;w hingham,West Hingham&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;west hingham,West Hingham&lt;/item&gt;</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B399" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="C399" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;west medford,West Medford&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;w hingham,West Hingham&lt;/item&gt;</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="B400" t="s">
         <v>502</v>
       </c>
       <c r="C400" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;w medford,West Medford&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;west medford,West Medford&lt;/item&gt;</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>424</v>
+        <v>566</v>
       </c>
       <c r="B401" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="C401" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;west natick,West Natick&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;w medford,West Medford&lt;/item&gt;</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B402" t="s">
         <v>425</v>
       </c>
       <c r="C402" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;w natick,West Natick&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;west natick,West Natick&lt;/item&gt;</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B403" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C403" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;west newton,West Newton&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;w natick,West Natick&lt;/item&gt;</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B404" t="s">
         <v>428</v>
       </c>
       <c r="C404" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;w newton,West Newton&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;west newton,West Newton&lt;/item&gt;</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>616</v>
+        <v>429</v>
       </c>
       <c r="B405" t="s">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="C405" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;west roxbury,West Roxbury&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;w newton,West Newton&lt;/item&gt;</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="B406" t="s">
         <v>507</v>
       </c>
       <c r="C406" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;w roxbury,West Roxbury&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;west roxbury,West Roxbury&lt;/item&gt;</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>430</v>
+        <v>567</v>
       </c>
       <c r="B407" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="C407" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;westborough,Westborough&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;w roxbury,West Roxbury&lt;/item&gt;</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>594</v>
+        <v>430</v>
       </c>
       <c r="B408" t="s">
-        <v>554</v>
+        <v>431</v>
       </c>
       <c r="C408" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;weymouth landing/east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;westborough,Westborough&lt;/item&gt;</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B409" t="s">
         <v>554</v>
       </c>
       <c r="C409" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;weymouth landing,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;weymouth landing/east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B410" t="s">
         <v>554</v>
       </c>
       <c r="C410" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;weymouth landing,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B411" t="s">
         <v>554</v>
       </c>
       <c r="C411" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;e braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B412" t="s">
         <v>554</v>
       </c>
       <c r="C412" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;weymouth landing / east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;e braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B413" t="s">
         <v>554</v>
       </c>
       <c r="C413" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;weymouth landing east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;weymouth landing / east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="B414" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C414" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;whitman,Whitman&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;weymouth landing east braintree,Weymouth Landing/ East Braintree&lt;/item&gt;</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="B415" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="C415" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wickford junction,Wickford Junction&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;whitman,Whitman&lt;/item&gt;</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B416" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C416" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wilmington,Wilmington&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wickford junction,Wickford Junction&lt;/item&gt;</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="B417" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C417" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;winchester center,Winchester Center&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wilmington,Wilmington&lt;/item&gt;</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -7878,62 +7889,74 @@
         <v>500</v>
       </c>
       <c r="C418" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>&lt;item&gt;winchester center,Winchester Center&lt;/item&gt;</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C419" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;windsor gardens,Windsor Gardens&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;winchester center,Winchester Center&lt;/item&gt;</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>432</v>
+        <v>642</v>
       </c>
       <c r="B420" t="s">
-        <v>433</v>
+        <v>533</v>
       </c>
       <c r="C420" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;worcester,Worcester&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;windsor gardens,Windsor Gardens&lt;/item&gt;</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>605</v>
+        <v>432</v>
       </c>
       <c r="B421" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="C421" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;item&gt;wyoming hill,Wyoming Hill&lt;/item&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;worcester,Worcester&lt;/item&gt;</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>605</v>
+      </c>
+      <c r="B422" t="s">
+        <v>494</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;item&gt;wyoming hill,Wyoming Hill&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>434</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B423" t="s">
         <v>435</v>
       </c>
-      <c r="C422" t="str">
-        <f t="shared" si="6"/>
+      <c r="C423" t="str">
+        <f t="shared" si="7"/>
         <v>&lt;item&gt;yawkey,Yawkey&lt;/item&gt;</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B422">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B422">
-      <sortCondition ref="B1:B422"/>
+  <autoFilter ref="A1:B423" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B423">
+      <sortCondition ref="B1:B423"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7941,7 +7964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C108"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
@@ -8916,7 +8939,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
-        <f t="shared" ref="A86:A103" si="3">LOWER(C86)</f>
+        <f t="shared" ref="A86:A101" si="3">LOWER(C86)</f>
         <v>plymouth</v>
       </c>
       <c r="B86" t="str">
